--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_10.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-946753.6575811747</v>
+        <v>-951467.5685355392</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12867279.61742386</v>
+        <v>12864919.69986218</v>
       </c>
     </row>
     <row r="11">
@@ -665,13 +665,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>212.011147416597</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>84.7268787535296</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>62.46955506727249</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
@@ -750,7 +750,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -786,7 +786,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0.8993789887360116</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>137.3252616208329</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>19.85905444009098</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>133.4315174129809</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>280.6966803280615</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +975,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>2.400034639827545</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
@@ -1032,7 +1032,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>212.6579339815752</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
@@ -1041,7 +1041,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>310.0392916174788</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>235.4551847859273</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
@@ -1148,10 +1148,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>159.314994701633</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>108.1045920014104</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,13 +1376,13 @@
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>336.3497832610537</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1424,13 +1424,13 @@
         <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>137.7427496453447</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
@@ -1528,19 +1528,19 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
-        <v>56.08464990973688</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
         <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>40.90952321458988</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>97.14887143916532</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
@@ -1613,10 +1613,10 @@
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>337.9528155621449</v>
@@ -1625,7 +1625,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>146.1040376966766</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>41.9174790370056</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>62.88055036109701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>84.67436304442484</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1841,19 +1841,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
         <v>278.6711586412924</v>
@@ -1862,7 +1862,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541629</v>
+        <v>122.8352329541643</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380504</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357231</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596444</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325497</v>
@@ -2068,7 +2068,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190363</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
         <v>282.3655247697376</v>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815729</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838888</v>
+        <v>24.17382596574978</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828901</v>
+        <v>52.06849973564991</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431733</v>
+        <v>70.57601873167823</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459974</v>
+        <v>55.72314698196064</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643946</v>
+        <v>41.29686219380037</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931857</v>
+        <v>41.22330424667948</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908584</v>
+        <v>42.97275566644674</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147798</v>
+        <v>53.79159358883888</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805002</v>
+        <v>41.14384575541092</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922195</v>
+        <v>18.98356133658285</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367787</v>
+        <v>9.88205970103877</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920519</v>
+        <v>88.00800320656609</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1650.712604500227</v>
+        <v>1451.166989664941</v>
       </c>
       <c r="C2" t="n">
-        <v>1257.537103003158</v>
+        <v>1057.991488167872</v>
       </c>
       <c r="D2" t="n">
-        <v>872.0959742198254</v>
+        <v>672.5503593845394</v>
       </c>
       <c r="E2" t="n">
-        <v>469.51244933637</v>
+        <v>672.5503593845394</v>
       </c>
       <c r="F2" t="n">
-        <v>52.61801086634774</v>
+        <v>255.6559209145172</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K2" t="n">
-        <v>188.1454323035831</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L2" t="n">
-        <v>483.8277400569167</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M2" t="n">
-        <v>1022.086525067009</v>
+        <v>1407.408573112017</v>
       </c>
       <c r="N2" t="n">
-        <v>1549.897808704471</v>
+        <v>1635.122736924593</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.9374095968</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.9374095968</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.79005602327</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S2" t="n">
-        <v>2051.207350211624</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T2" t="n">
-        <v>2051.207350211624</v>
+        <v>1851.661735376338</v>
       </c>
       <c r="U2" t="n">
-        <v>2051.207350211624</v>
+        <v>1851.661735376338</v>
       </c>
       <c r="V2" t="n">
-        <v>2051.207350211624</v>
+        <v>1851.661735376338</v>
       </c>
       <c r="W2" t="n">
-        <v>2051.207350211624</v>
+        <v>1851.661735376338</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.207350211624</v>
+        <v>1851.661735376338</v>
       </c>
       <c r="Y2" t="n">
-        <v>2051.207350211624</v>
+        <v>1851.661735376338</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021433</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622355</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>442.0586267882229</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>305.6121358991106</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>181.1803297822424</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>714.382533420277</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>1252.64131843037</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="N3" t="n">
-        <v>1252.64131843037</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021351</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737748</v>
+        <v>1877.147508262691</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>2050.33683109</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.95143773459</v>
+        <v>1873.353019288908</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413232</v>
+        <v>1663.28987596755</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784299</v>
+        <v>1440.749874338617</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917586</v>
+        <v>1210.632628471904</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675974</v>
+        <v>1021.325550821916</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431047</v>
+        <v>842.011333897423</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>508.0462759018397</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="C4" t="n">
-        <v>337.841157967829</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="D4" t="n">
-        <v>182.2080448703437</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475497</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475497</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475497</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475497</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475497</v>
+        <v>71.88151693023649</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>742.1265981188567</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T4" t="n">
-        <v>742.1265981188567</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="U4" t="n">
-        <v>742.1265981188567</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="V4" t="n">
-        <v>742.1265981188567</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="W4" t="n">
-        <v>742.1265981188567</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="X4" t="n">
-        <v>508.0462759018397</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="Y4" t="n">
-        <v>508.0462759018397</v>
+        <v>360.4544933316646</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>988.3449098800093</v>
+        <v>1401.616179986014</v>
       </c>
       <c r="C5" t="n">
-        <v>595.1694083829398</v>
+        <v>1008.440678488944</v>
       </c>
       <c r="D5" t="n">
-        <v>595.1694083829398</v>
+        <v>1008.440678488944</v>
       </c>
       <c r="E5" t="n">
-        <v>595.1694083829398</v>
+        <v>605.8571536054886</v>
       </c>
       <c r="F5" t="n">
-        <v>178.2749699129175</v>
+        <v>188.9627151354664</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K5" t="n">
-        <v>43.49565939475497</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>536.8159511132837</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.074736123376</v>
+        <v>1407.408573112017</v>
       </c>
       <c r="N5" t="n">
-        <v>1602.886019760838</v>
+        <v>1921.011251721705</v>
       </c>
       <c r="O5" t="n">
-        <v>1826.595477606226</v>
+        <v>1921.011251721705</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737748</v>
+        <v>1908.648782757972</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737748</v>
+        <v>1685.148180317389</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.782969737748</v>
+        <v>1685.148180317389</v>
       </c>
       <c r="V5" t="n">
-        <v>2174.782969737748</v>
+        <v>1685.148180317389</v>
       </c>
       <c r="W5" t="n">
-        <v>2174.782969737748</v>
+        <v>1685.148180317389</v>
       </c>
       <c r="X5" t="n">
-        <v>1785.330364670805</v>
+        <v>1401.616179986014</v>
       </c>
       <c r="Y5" t="n">
-        <v>1388.839655591406</v>
+        <v>1401.616179986014</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813165</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>556.1927859813165</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>426.1038186027969</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M6" t="n">
-        <v>1498.174658585115</v>
+        <v>1038.67201126434</v>
       </c>
       <c r="N6" t="n">
-        <v>1534.79650946646</v>
+        <v>1327.194567652343</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.79650946646</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.95143773459</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413232</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V6" t="n">
-        <v>1414.082300492449</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W6" t="n">
-        <v>1183.965054625736</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X6" t="n">
-        <v>994.6579769757473</v>
+        <v>887.3033373467706</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222779</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475497</v>
+        <v>841.5932941600436</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475497</v>
+        <v>841.5932941600436</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475497</v>
+        <v>841.5932941600436</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475497</v>
+        <v>686.0344820192461</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475497</v>
+        <v>528.7085472322191</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475497</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475497</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475497</v>
+        <v>71.88151693023649</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>841.5932941600436</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>841.5932941600436</v>
       </c>
       <c r="T7" t="n">
-        <v>878.2441984008522</v>
+        <v>841.5932941600436</v>
       </c>
       <c r="U7" t="n">
-        <v>592.805406642753</v>
+        <v>841.5932941600436</v>
       </c>
       <c r="V7" t="n">
-        <v>326.8260614635773</v>
+        <v>841.5932941600436</v>
       </c>
       <c r="W7" t="n">
-        <v>43.49565939475497</v>
+        <v>841.5932941600436</v>
       </c>
       <c r="X7" t="n">
-        <v>43.49565939475497</v>
+        <v>841.5932941600436</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.49565939475497</v>
+        <v>841.5932941600436</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1655.986794363964</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="C8" t="n">
-        <v>1262.811292866895</v>
+        <v>2127.814985091395</v>
       </c>
       <c r="D8" t="n">
-        <v>877.3701640835627</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4808,16 +4808,16 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>550.9450990378335</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1096.945999082414</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N8" t="n">
-        <v>1624.757282719876</v>
+        <v>1572.076674393824</v>
       </c>
       <c r="O8" t="n">
-        <v>2064.796883612205</v>
+        <v>2012.116275286153</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4847,7 +4847,7 @@
         <v>2365.64850507718</v>
       </c>
       <c r="Y8" t="n">
-        <v>1969.157795997781</v>
+        <v>2365.64850507718</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>839.5634350659138</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>683.9303219684286</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>528.3715098276311</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>371.0455750406041</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>202.7915211400496</v>
       </c>
       <c r="H10" t="n">
         <v>47.31297010154361</v>
@@ -4999,13 +4999,13 @@
         <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>665.4295905742738</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>431.3492683572568</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>208.2372071739002</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1450.148693143102</v>
+        <v>1434.218555009979</v>
       </c>
       <c r="C11" t="n">
-        <v>1128.769466792226</v>
+        <v>1112.839328659103</v>
       </c>
       <c r="D11" t="n">
-        <v>815.1246131550881</v>
+        <v>799.1944750219649</v>
       </c>
       <c r="E11" t="n">
-        <v>815.1246131550881</v>
+        <v>468.4072252847031</v>
       </c>
       <c r="F11" t="n">
-        <v>470.0264498312598</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="G11" t="n">
         <v>128.6599694654568</v>
@@ -5072,19 +5072,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2859.534777998631</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2720.400687447778</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2421.197927562259</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="X11" t="n">
-        <v>2103.54159764151</v>
+        <v>2087.611459508387</v>
       </c>
       <c r="Y11" t="n">
-        <v>1778.847163708305</v>
+        <v>1762.917025575182</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.947919817482</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.5980990866637</v>
+        <v>571.4129340497493</v>
       </c>
       <c r="C13" t="n">
-        <v>265.5980990866637</v>
+        <v>473.0040912619324</v>
       </c>
       <c r="D13" t="n">
-        <v>265.5980990866637</v>
+        <v>389.1672533106412</v>
       </c>
       <c r="E13" t="n">
-        <v>208.9469375616769</v>
+        <v>305.4047163160375</v>
       </c>
       <c r="F13" t="n">
-        <v>123.4172779208438</v>
+        <v>219.8750566752044</v>
       </c>
       <c r="G13" t="n">
         <v>123.4172779208438</v>
@@ -5200,7 +5200,7 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
         <v>489.4106539027736</v>
@@ -5209,7 +5209,7 @@
         <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922021</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.685342236449</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245441</v>
+        <v>1099.965602310116</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915622</v>
+        <v>1058.642851588308</v>
       </c>
       <c r="W13" t="n">
-        <v>530.3256286689339</v>
+        <v>847.1087246656798</v>
       </c>
       <c r="X13" t="n">
-        <v>530.3256286689339</v>
+        <v>684.8246775948567</v>
       </c>
       <c r="Y13" t="n">
-        <v>379.0098426317711</v>
+        <v>684.8246775948567</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1688.124554843851</v>
+        <v>1635.894626669076</v>
       </c>
       <c r="C14" t="n">
-        <v>1366.745328492975</v>
+        <v>1314.515400318201</v>
       </c>
       <c r="D14" t="n">
-        <v>1053.100474855837</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="E14" t="n">
-        <v>722.3132251185752</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185752</v>
+        <v>655.7723833572338</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527723</v>
+        <v>314.4059029914308</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>3105.956385205776</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2958.376549148527</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="W14" t="n">
-        <v>2659.173789263008</v>
+        <v>2376.375563693905</v>
       </c>
       <c r="X14" t="n">
-        <v>2341.517459342259</v>
+        <v>2058.719233773156</v>
       </c>
       <c r="Y14" t="n">
-        <v>2016.823025409054</v>
+        <v>1734.024799839951</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>175.2341099238429</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>658.8001958221562</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1286.571845448837</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N15" t="n">
-        <v>1286.571845448837</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O15" t="n">
-        <v>1803.092128039818</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P15" t="n">
-        <v>2208.713496756216</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>551.1661044905969</v>
+        <v>305.4047163160375</v>
       </c>
       <c r="C16" t="n">
-        <v>452.7572617027801</v>
+        <v>305.4047163160375</v>
       </c>
       <c r="D16" t="n">
-        <v>368.9204237514888</v>
+        <v>305.4047163160375</v>
       </c>
       <c r="E16" t="n">
         <v>305.4047163160375</v>
@@ -5434,10 +5434,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
         <v>489.4106539027736</v>
@@ -5446,7 +5446,7 @@
         <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138161</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T16" t="n">
-        <v>1332.809865128936</v>
+        <v>1280.705150907706</v>
       </c>
       <c r="U16" t="n">
-        <v>1119.16734851703</v>
+        <v>1067.062634295801</v>
       </c>
       <c r="V16" t="n">
-        <v>924.9842784840486</v>
+        <v>872.8795642628193</v>
       </c>
       <c r="W16" t="n">
-        <v>713.4501515614201</v>
+        <v>661.3454373401908</v>
       </c>
       <c r="X16" t="n">
-        <v>551.1661044905969</v>
+        <v>499.0613902693677</v>
       </c>
       <c r="Y16" t="n">
-        <v>551.1661044905969</v>
+        <v>347.7456042322048</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975443</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099305</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924214</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5546,7 +5546,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188066</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5555,10 +5555,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="18">
@@ -5592,19 +5592,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>318.9689542635005</v>
       </c>
       <c r="L18" t="n">
-        <v>494.9732559860694</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="M18" t="n">
-        <v>1122.744905612751</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N18" t="n">
-        <v>1778.52287682331</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
         <v>1974.833293963354</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5674,49 +5674,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>273.0105384364861</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102859</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567324</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879416</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296496</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106228</v>
+        <v>965.7235964838002</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.258445116189</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974515</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5780,19 +5780,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5829,19 +5829,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1493.196009291336</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5914,19 +5914,19 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>437.1381783102858</v>
+        <v>313.6614512960405</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>499.9530296343045</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5972,16 +5972,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6075,7 +6075,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,49 +6121,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229885</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446693</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102856</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485496</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6209,13 @@
         <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,22 +6224,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>606.9665031662622</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1193.338156614364</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N26" t="n">
-        <v>2516.334910202705</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O26" t="n">
-        <v>3049.425872824607</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
         <v>3427.582880238551</v>
@@ -6251,13 +6251,13 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
         <v>3060.13197616485</v>
@@ -6303,22 +6303,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.557331157736</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
-        <v>2157.335302368295</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
-        <v>2157.335302368295</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
         <v>2157.335302368295</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878065</v>
@@ -6385,10 +6385,10 @@
         <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
         <v>848.0508225904116</v>
@@ -6424,10 +6424,10 @@
         <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424151</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.22278621427</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6464,7 +6464,7 @@
         <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
         <v>1163.368641331942</v>
@@ -6479,16 +6479,16 @@
         <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.346025506991</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
         <v>3468.110152452356</v>
@@ -6546,10 +6546,10 @@
         <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>506.2189872295041</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>579.4156798503576</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6598,7 +6598,7 @@
         <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414157</v>
@@ -6613,7 +6613,7 @@
         <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232842</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
@@ -6622,49 +6622,49 @@
         <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192014</v>
       </c>
       <c r="L31" t="n">
         <v>568.7078825225744</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904117</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993075</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108105</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835497</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>319.47041387666</v>
+        <v>323.8570290861561</v>
       </c>
       <c r="K32" t="n">
-        <v>763.8629527501305</v>
+        <v>794.4915056886009</v>
       </c>
       <c r="L32" t="n">
-        <v>1257.183244468659</v>
+        <v>1330.871943270412</v>
       </c>
       <c r="M32" t="n">
-        <v>1803.18414451324</v>
+        <v>1876.872843314993</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150702</v>
+        <v>2404.684126952455</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.035029043031</v>
+        <v>2844.723727844784</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174552</v>
+        <v>3192.911219976305</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042571</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965128</v>
+        <v>365.6713676929712</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918665</v>
+        <v>309.3853606404857</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237459</v>
+        <v>267.6713584245257</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123129</v>
+        <v>226.0316571652536</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546505</v>
+        <v>182.6248332597518</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834606</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431915</v>
+        <v>86.7304500837419</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>149.4335135798905</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>342.9206752648154</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082765</v>
+        <v>618.700435713598</v>
       </c>
       <c r="M34" t="n">
-        <v>893.1204358736109</v>
+        <v>910.7916726541089</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.31006990482</v>
+        <v>1093.981306685318</v>
       </c>
       <c r="O34" t="n">
-        <v>1344.287929673598</v>
+        <v>1256.686073727026</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376592</v>
+        <v>1376.562239503605</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250179</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395517</v>
+        <v>835.7257283273674</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000939</v>
+        <v>666.3144371400703</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124416</v>
+        <v>546.1532258045786</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584495</v>
+        <v>436.9602755027472</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498593</v>
@@ -6929,7 +6929,7 @@
         <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6959,7 +6959,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
         <v>3071.119566829236</v>
@@ -6977,7 +6977,7 @@
         <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443166</v>
@@ -7023,10 +7023,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O36" t="n">
         <v>1740.468202408463</v>
@@ -7087,13 +7087,13 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229933</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
         <v>278.5901810446697</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,7 +7208,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
         <v>2405.46733722469</v>
@@ -7217,7 +7217,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>278.5901810446697</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P40" t="n">
         <v>1094.779966106229</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7394,16 +7394,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924227</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7418,10 +7418,10 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O41" t="n">
         <v>2572.923332933306</v>
@@ -7430,7 +7430,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R41" t="n">
         <v>3105.956385205777</v>
@@ -7442,7 +7442,7 @@
         <v>2979.295701071062</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573995</v>
@@ -7451,10 +7451,10 @@
         <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="42">
@@ -7497,7 +7497,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>67.69877031229984</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222417</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>313.6614512960415</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>629.009399256734</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879432</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7655,10 +7655,10 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N44" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O44" t="n">
         <v>2572.923332933306</v>
@@ -7667,10 +7667,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
         <v>3071.119566829236</v>
@@ -7804,22 +7804,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229987</v>
       </c>
       <c r="K46" t="n">
-        <v>149.5338114222416</v>
+        <v>149.5338114222417</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960414</v>
+        <v>442.71782091847</v>
       </c>
       <c r="M46" t="n">
-        <v>499.9530296343054</v>
+        <v>629.009399256734</v>
       </c>
       <c r="N46" t="n">
-        <v>683.1426636655146</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O46" t="n">
-        <v>845.8474307072227</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P46" t="n">
         <v>1094.77996610623</v>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>451.9171674611317</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321644</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>379.1327982191739</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7997,7 +7997,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8061,22 +8061,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>330.4974637696134</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837489</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431193</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>291.0031325036217</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,22 +8216,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920145</v>
       </c>
       <c r="O5" t="n">
-        <v>375.5329867628724</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>306.0096150138709</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837489</v>
+        <v>611.1777065035423</v>
       </c>
       <c r="N6" t="n">
-        <v>122.3638814211824</v>
+        <v>376.8090384986142</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431193</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8456,10 +8456,10 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,7 +8468,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>267.4792869621647</v>
+        <v>320.6920226450452</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>340.274574506989</v>
+        <v>422.8212561536984</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8550,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8933,7 +8933,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
-        <v>701.2411122488188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
         <v>682.2612020826953</v>
@@ -8945,7 +8945,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9003,10 +9003,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9021,10 +9021,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>461.5665676450056</v>
       </c>
       <c r="Q15" t="n">
-        <v>264.4640783312027</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,22 +9240,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>349.0412045852374</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>290.9809095353983</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,13 +9486,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>335.1420048916687</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9723,10 +9723,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,16 +9960,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>723.5863546247123</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10194,13 +10194,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>166.3231752016892</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069888</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10671,13 +10671,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10829,7 +10829,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N38" t="n">
         <v>682.2612020826953</v>
@@ -11145,10 +11145,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.297398429536388</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
         <v>249.7639075344423</v>
@@ -23312,13 +23312,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>129.8646791634402</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>26.84026171492069</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>82.84545313338901</v>
@@ -23467,22 +23467,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>151.3317161180622</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>228.2626144203857</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,10 +23501,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>121.5033911121083</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>70.36014707265073</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
-        <v>20.04436126356055</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-1.011569882521106e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1125471.874819853</v>
+        <v>1124268.779592332</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1125471.874819853</v>
+        <v>1124268.779592332</v>
       </c>
     </row>
     <row r="4">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180332.1780933567</v>
+        <v>180332.1780933568</v>
       </c>
       <c r="C2" t="n">
-        <v>180332.1780933567</v>
+        <v>180332.1780933568</v>
       </c>
       <c r="D2" t="n">
         <v>180332.1780933568</v>
       </c>
       <c r="E2" t="n">
-        <v>159359.0234244008</v>
+        <v>159359.0234244007</v>
       </c>
       <c r="F2" t="n">
-        <v>159359.0234244008</v>
+        <v>159359.0234244007</v>
       </c>
       <c r="G2" t="n">
+        <v>180332.1780933568</v>
+      </c>
+      <c r="H2" t="n">
         <v>180332.1780933569</v>
       </c>
-      <c r="H2" t="n">
-        <v>180332.1780933567</v>
-      </c>
       <c r="I2" t="n">
-        <v>180332.1780933567</v>
+        <v>180332.1780933569</v>
       </c>
       <c r="J2" t="n">
-        <v>180332.1780933567</v>
+        <v>180332.1780933568</v>
       </c>
       <c r="K2" t="n">
+        <v>180332.1780933569</v>
+      </c>
+      <c r="L2" t="n">
         <v>180332.1780933568</v>
       </c>
-      <c r="L2" t="n">
-        <v>180332.1780933572</v>
-      </c>
       <c r="M2" t="n">
-        <v>180332.1780933569</v>
+        <v>180332.1780933568</v>
       </c>
       <c r="N2" t="n">
         <v>180332.1780933569</v>
       </c>
       <c r="O2" t="n">
-        <v>180332.1780933568</v>
+        <v>180332.1780933569</v>
       </c>
       <c r="P2" t="n">
         <v>180332.1780933569</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062194</v>
+        <v>22558.42953401354</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668202</v>
+        <v>47425.32553668198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.4717972856</v>
+        <v>62456.24177539683</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962297</v>
+        <v>43252.52447081122</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277119</v>
+        <v>27767.69404277118</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210684.909484023</v>
+        <v>216193.9885327256</v>
       </c>
       <c r="C4" t="n">
-        <v>210684.909484023</v>
+        <v>216193.9885327256</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
@@ -26445,7 +26445,7 @@
         <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173955.5025478466</v>
+        <v>173822.1079387918</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,7 +26482,7 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
@@ -26491,22 +26491,22 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315422</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-279241.9808225359</v>
+        <v>-274890.5350082411</v>
       </c>
       <c r="C6" t="n">
-        <v>-97037.03253068001</v>
+        <v>-101031.877974186</v>
       </c>
       <c r="D6" t="n">
-        <v>-104205.3535523514</v>
+        <v>-111941.642775743</v>
       </c>
       <c r="E6" t="n">
-        <v>-131651.2252418488</v>
+        <v>-131860.9567885385</v>
       </c>
       <c r="F6" t="n">
-        <v>-19528.66376780433</v>
+        <v>-19738.39531449391</v>
       </c>
       <c r="G6" t="n">
-        <v>-98723.5007427916</v>
+        <v>-98723.50074279166</v>
       </c>
       <c r="H6" t="n">
-        <v>-51298.17520610968</v>
+        <v>-51298.17520610956</v>
       </c>
       <c r="I6" t="n">
-        <v>-51298.17520610971</v>
+        <v>-51298.17520610956</v>
       </c>
       <c r="J6" t="n">
-        <v>-264340.0928033952</v>
+        <v>-257823.807648822</v>
       </c>
       <c r="K6" t="n">
-        <v>-57537.94360889256</v>
+        <v>-57537.94360889251</v>
       </c>
       <c r="L6" t="n">
-        <v>-112720.5325435134</v>
+        <v>-116769.369753986</v>
       </c>
       <c r="M6" t="n">
-        <v>-93499.00466573253</v>
+        <v>-94550.69967692081</v>
       </c>
       <c r="N6" t="n">
-        <v>-51298.17520610953</v>
+        <v>-51298.17520610956</v>
       </c>
       <c r="O6" t="n">
-        <v>-79065.86924888077</v>
+        <v>-79065.8692488808</v>
       </c>
       <c r="P6" t="n">
-        <v>-51298.17520610953</v>
+        <v>-51298.17520610956</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,16 +26811,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095203</v>
+        <v>844.4391950293135</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085253</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.709617553464</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.626839746607</v>
+        <v>78.07030221924603</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551339</v>
+        <v>17.58004954287435</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773713</v>
+        <v>659.3622249971645</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407288</v>
+        <v>117.1268713042798</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085253</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27385,13 +27385,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>197.0199805402799</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>80.12154075483033</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -27458,10 +27458,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>66.31852263746197</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>132.6819913403938</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>16.67796239855664</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -27552,13 +27552,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27600,7 +27600,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>211.8804645547557</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>275.5996105438959</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -27679,10 +27679,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>104.8613986882123</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27695,13 +27695,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>132.6819913403936</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27752,7 +27752,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>7.656667631068416</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27780,22 +27780,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>22.31857408727991</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>86.45050663680411</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>153.7885616961714</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.04094380275524</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>60.39847475326023</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28071,13 +28071,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,43 +28719,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>5.636002634527813</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>5.636002634528353</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28986,14 +28986,14 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
+        <v>5.63600263452858</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.636002634528545</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29217,13 +29217,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668768</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>30.27223765901209</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P26" t="n">
-        <v>30.27223765901277</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431633</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P29" t="n">
-        <v>86.65052755599589</v>
+        <v>30.27223765901232</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="32">
@@ -29746,37 +29746,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="K32" t="n">
-        <v>86.27291196566534</v>
+        <v>112.77991977271</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>43.49509683159863</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29791,31 +29791,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>106.8683420224716</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>18.7144686125408</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30165,10 +30165,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
-        <v>130.3599693155844</v>
+        <v>35.71049010668817</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30402,25 +30402,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>5.636002634528353</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K40" t="n">
-        <v>35.71049010668817</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30490,7 +30490,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30639,7 +30639,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>35.71049010668867</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30727,7 +30727,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30876,13 +30876,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>35.7104901066887</v>
       </c>
       <c r="K46" t="n">
-        <v>5.63600263452949</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30894,7 +30894,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>298.66899773064</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>230.0143068813898</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34717,7 +34717,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>240.4371169126952</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344371</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>200.0149793477077</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O5" t="n">
-        <v>225.969149338776</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>155.7081677729457</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N6" t="n">
-        <v>36.99176856701577</v>
+        <v>291.4369256444476</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35176,10 +35176,10 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,7 +35188,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>117.1778397212395</v>
+        <v>170.39057540412</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>247.8874524576771</v>
+        <v>330.4341341043865</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35270,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
         <v>533.1427107449111</v>
@@ -35665,7 +35665,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35741,10 +35741,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>374.483202825691</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.4759251752887</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>259.444269251904</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>198.2933506465095</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36042,16 +36042,16 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>193.8093140873198</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094871</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36060,7 +36060,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,13 +36206,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>249.769892037502</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36282,13 +36282,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>296.1454641376044</v>
+        <v>171.4214974565486</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36297,7 +36297,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.092766644681028</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5.636002634528606</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L25" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36534,7 +36534,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>392.8806780907917</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
@@ -36610,13 +36610,13 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>381.9767751656005</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,16 +36680,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>631.1992325754004</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611264</v>
+        <v>176.6529321611263</v>
       </c>
       <c r="L28" t="n">
         <v>259.7767692963365</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,10 +36832,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36847,13 +36847,13 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>438.3550650625836</v>
+        <v>381.9767751656</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,13 +36914,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>73.9360531523773</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261599</v>
+        <v>258.890801498799</v>
       </c>
       <c r="K32" t="n">
-        <v>448.881352397445</v>
+        <v>475.3883602044897</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>541.7984217998096</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37087,10 +37087,10 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111301</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273765</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>247.8874524576769</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791186</v>
+        <v>82.70543230055097</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>195.44157745952</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>278.56541459473</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528629</v>
+        <v>295.0416534752635</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371498</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>139.801504750499</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37391,13 +37391,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634529087</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
-        <v>213.0216270023944</v>
+        <v>118.3721477934981</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37549,7 +37549,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>118.3721477934981</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37710,13 +37710,13 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094871</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
@@ -37786,7 +37786,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510925</v>
       </c>
       <c r="N41" t="n">
         <v>533.1427107449111</v>
@@ -37865,10 +37865,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.636002634529604</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37944,10 +37944,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5332807683763</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -38023,7 +38023,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510925</v>
       </c>
       <c r="N44" t="n">
         <v>533.1427107449111</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>5.636002634529633</v>
       </c>
       <c r="K46" t="n">
-        <v>88.29766032133946</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38190,7 +38190,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
